--- a/Excel_Files/Stats_Populations/1.5_cm/724_nm_s.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/724_nm_s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Quantiles</t>
   </si>
@@ -61,142 +61,133 @@
     <t>Min_DR</t>
   </si>
   <si>
-    <t>2.97 E-4</t>
-  </si>
-  <si>
-    <t>1.50 E-4</t>
-  </si>
-  <si>
-    <t>9.92 E-5</t>
-  </si>
-  <si>
-    <t>4.85 E-6</t>
-  </si>
-  <si>
-    <t>2.88 E-6</t>
-  </si>
-  <si>
-    <t>1.84 E-6</t>
-  </si>
-  <si>
-    <t>4.61 E-4</t>
-  </si>
-  <si>
-    <t>4.09 E-4</t>
-  </si>
-  <si>
-    <t>1.76 E-4</t>
-  </si>
-  <si>
-    <t>6.57 E-6</t>
-  </si>
-  <si>
-    <t>3.56 E-6</t>
-  </si>
-  <si>
-    <t>9.50 E-7</t>
-  </si>
-  <si>
-    <t>3.00 E-4</t>
-  </si>
-  <si>
-    <t>2.26 E-4</t>
-  </si>
-  <si>
-    <t>1.58 E-4</t>
-  </si>
-  <si>
-    <t>5.01 E-6</t>
-  </si>
-  <si>
-    <t>2.52 E-6</t>
-  </si>
-  <si>
-    <t>7.34 E-7</t>
-  </si>
-  <si>
-    <t>3.05 E-4</t>
+    <t>2.43 E-3</t>
+  </si>
+  <si>
+    <t>1.91 E-3</t>
+  </si>
+  <si>
+    <t>1.62 E-3</t>
+  </si>
+  <si>
+    <t>3.96 E-4</t>
+  </si>
+  <si>
+    <t>3.07 E-4</t>
+  </si>
+  <si>
+    <t>2.47 E-4</t>
+  </si>
+  <si>
+    <t>2.19 E-3</t>
+  </si>
+  <si>
+    <t>2.06 E-3</t>
+  </si>
+  <si>
+    <t>1.83 E-3</t>
+  </si>
+  <si>
+    <t>4.58 E-4</t>
+  </si>
+  <si>
+    <t>3.50 E-4</t>
+  </si>
+  <si>
+    <t>1.84 E-4</t>
+  </si>
+  <si>
+    <t>2.36 E-3</t>
+  </si>
+  <si>
+    <t>2.05 E-3</t>
+  </si>
+  <si>
+    <t>1.85 E-3</t>
+  </si>
+  <si>
+    <t>4.00 E-4</t>
+  </si>
+  <si>
+    <t>2.89 E-4</t>
+  </si>
+  <si>
+    <t>1.57 E-4</t>
+  </si>
+  <si>
+    <t>2.16 E-3</t>
+  </si>
+  <si>
+    <t>1.70 E-3</t>
+  </si>
+  <si>
+    <t>1.22 E-3</t>
+  </si>
+  <si>
+    <t>2.95 E-4</t>
+  </si>
+  <si>
+    <t>1.94 E-4</t>
   </si>
   <si>
     <t>1.10 E-4</t>
   </si>
   <si>
-    <t>5.15 E-5</t>
-  </si>
-  <si>
-    <t>2.58 E-6</t>
-  </si>
-  <si>
-    <t>1.17 E-6</t>
-  </si>
-  <si>
-    <t>3.57 E-7</t>
-  </si>
-  <si>
-    <t>1.92 E-4</t>
-  </si>
-  <si>
-    <t>1.32 E-4</t>
-  </si>
-  <si>
-    <t>4.81 E-5</t>
-  </si>
-  <si>
-    <t>1.76 E-6</t>
-  </si>
-  <si>
-    <t>1.05 E-6</t>
-  </si>
-  <si>
-    <t>5.32 E-7</t>
-  </si>
-  <si>
-    <t>2.28 E-4</t>
-  </si>
-  <si>
-    <t>1.15 E-4</t>
-  </si>
-  <si>
-    <t>3.19 E-6</t>
-  </si>
-  <si>
-    <t>1.49 E-6</t>
-  </si>
-  <si>
-    <t>5.10 E-4</t>
-  </si>
-  <si>
-    <t>2.47 E-4</t>
-  </si>
-  <si>
-    <t>1.63 E-4</t>
-  </si>
-  <si>
-    <t>4.50 E-6</t>
-  </si>
-  <si>
-    <t>2.95 E-6</t>
-  </si>
-  <si>
-    <t>1.96 E-6</t>
-  </si>
-  <si>
-    <t>6.25 E-4</t>
-  </si>
-  <si>
-    <t>1.72 E-4</t>
-  </si>
-  <si>
-    <t>4.92 E-5</t>
-  </si>
-  <si>
-    <t>4.30 E-6</t>
-  </si>
-  <si>
-    <t>2.40 E-6</t>
-  </si>
-  <si>
-    <t>1.25 E-6</t>
+    <t>1.94 E-3</t>
+  </si>
+  <si>
+    <t>1.81 E-3</t>
+  </si>
+  <si>
+    <t>1.18 E-3</t>
+  </si>
+  <si>
+    <t>2.42 E-4</t>
+  </si>
+  <si>
+    <t>1.90 E-4</t>
+  </si>
+  <si>
+    <t>1.36 E-4</t>
+  </si>
+  <si>
+    <t>2.00 E-3</t>
+  </si>
+  <si>
+    <t>1.67 E-3</t>
+  </si>
+  <si>
+    <t>3.26 E-4</t>
+  </si>
+  <si>
+    <t>2.22 E-4</t>
+  </si>
+  <si>
+    <t>2.74 E-3</t>
+  </si>
+  <si>
+    <t>3.81 E-4</t>
+  </si>
+  <si>
+    <t>2.98 E-4</t>
+  </si>
+  <si>
+    <t>2.50 E-4</t>
+  </si>
+  <si>
+    <t>2.66 E-3</t>
+  </si>
+  <si>
+    <t>1.21 E-3</t>
+  </si>
+  <si>
+    <t>3.58 E-4</t>
+  </si>
+  <si>
+    <t>2.57 E-4</t>
+  </si>
+  <si>
+    <t>2.02 E-4</t>
   </si>
 </sst>
 </file>
@@ -612,13 +603,13 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -647,10 +638,10 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -679,10 +670,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -711,10 +702,10 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -743,10 +734,10 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -775,10 +766,10 @@
         <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
